--- a/Phong Kinh Doanh/Doi tac kinh doanh/Cao Cap Viet/Mo ta cong viec Giam sat ban hang.xlsx
+++ b/Phong Kinh Doanh/Doi tac kinh doanh/Cao Cap Viet/Mo ta cong viec Giam sat ban hang.xlsx
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
